--- a/tweets_teste.xlsx
+++ b/tweets_teste.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.t/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.t/Desktop/projeto-2-heineken-henrique-beni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A280BB8-CEC2-6541-8A79-111BAB26573F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E443932-5B0D-F440-A142-411444C0BB7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="14480" xr2:uid="{0C7E77B7-A542-D84A-9C39-D68A373BE216}"/>
+    <workbookView xWindow="100" yWindow="600" windowWidth="24540" windowHeight="14480" xr2:uid="{0C7E77B7-A542-D84A-9C39-D68A373BE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Teste!$A$1:$B$201</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>rt @farrley_: isso é coisa de branco bombado cabelo liso topete na frente blusa amarrada no braço ou entao enfiada no bolso da bermudinha j…</t>
   </si>
@@ -491,9 +494,6 @@
     <t>2=indiferente</t>
   </si>
   <si>
-    <t>1=ruim</t>
-  </si>
-  <si>
     <t>queria tá falando "bom dia" com uma heineken na mão como foi nesse feriadão</t>
   </si>
   <si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>1= ruim</t>
+  </si>
+  <si>
+    <t>Bot</t>
   </si>
 </sst>
 </file>
@@ -885,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C027944A-5FCA-834F-971D-3268849E8117}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -898,48 +904,51 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -947,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -955,7 +964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -963,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -971,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -979,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -987,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2516,6 +2525,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B201" xr:uid="{062E194E-53CA-0142-91FC-E20432039567}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>